--- a/Template - Relatório de teste.xlsx
+++ b/Template - Relatório de teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/lucas_rocha2_br_ey_com/Documents/Documents/Chubb/comparaTabelasCSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A5802189-6F34-47B2-BD01-C7D2D92662C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791DFE9A-1209-4BEA-A4D4-0B557D7BF0E7}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{A5802189-6F34-47B2-BD01-C7D2D92662C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F618AF-CF2B-48CC-A6E0-62719DF66869}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="24090" windowHeight="11385" xr2:uid="{850903C5-D053-47AF-9BE4-30F0F3D838BC}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{850903C5-D053-47AF-9BE4-30F0F3D838BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,6 +283,12 @@
     <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -306,12 +312,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -334,105 +334,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>189086</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Google Shape;244;p1" descr="Big Data Belfast Conference 2022 | Analytics Engines">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA31AE9-5602-4935-BEB1-513F741E688A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:alphaModFix/>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="523875" cy="379586"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>465538</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>86296</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Google Shape;243;p1" descr="Chubb Seguros - Portal">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9399CF-00D8-4BCB-B7A9-8F304C8F1FEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:alphaModFix/>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7534275" y="104775"/>
-          <a:ext cx="1703788" cy="172021"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDD1B65-ED27-43A1-84C5-2922AC70B944}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,67 +650,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -850,8 +751,8 @@
         <v>8</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="8"/>
       <c r="G9" s="1"/>
     </row>
@@ -863,8 +764,8 @@
         <v>9</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="7"/>
       <c r="G10" s="1"/>
     </row>
@@ -876,8 +777,8 @@
         <v>10</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="8"/>
       <c r="G11" s="1"/>
     </row>
@@ -889,8 +790,8 @@
         <v>11</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="7"/>
       <c r="G12" s="1"/>
     </row>
@@ -899,11 +800,11 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="8"/>
       <c r="G13" s="1"/>
     </row>
@@ -912,11 +813,11 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="7"/>
       <c r="G14" s="1"/>
     </row>
@@ -928,8 +829,8 @@
         <v>15</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="8"/>
       <c r="G15" s="1"/>
     </row>
@@ -941,8 +842,8 @@
         <v>16</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="7"/>
       <c r="G16" s="1"/>
     </row>
@@ -954,8 +855,8 @@
         <v>17</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="8"/>
       <c r="G17" s="1"/>
     </row>
@@ -967,8 +868,8 @@
         <v>18</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="7"/>
       <c r="G18" s="1"/>
     </row>
@@ -995,6 +896,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Template - Relatório de teste.xlsx
+++ b/Template - Relatório de teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/lucas_rocha2_br_ey_com/Documents/Documents/Chubb/comparaTabelasCSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{A5802189-6F34-47B2-BD01-C7D2D92662C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F618AF-CF2B-48CC-A6E0-62719DF66869}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{A5802189-6F34-47B2-BD01-C7D2D92662C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36FB86A2-0561-4BE9-815D-8D42EC0E09DC}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{850903C5-D053-47AF-9BE4-30F0F3D838BC}"/>
+    <workbookView xWindow="46584" yWindow="7296" windowWidth="21600" windowHeight="11388" xr2:uid="{850903C5-D053-47AF-9BE4-30F0F3D838BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -269,12 +269,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -636,7 +630,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,67 +644,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -750,10 +744,10 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -763,10 +757,10 @@
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,10 +770,10 @@
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -789,10 +783,10 @@
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -802,10 +796,10 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -815,10 +809,10 @@
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,10 +822,10 @@
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -841,10 +835,10 @@
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,10 +848,10 @@
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -867,10 +861,10 @@
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
